--- a/data/pca/factorExposure/factorExposure_2019-06-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1177439910215975</v>
+        <v>0.07889949924691539</v>
       </c>
       <c r="C2">
-        <v>-0.02009816238525901</v>
+        <v>0.01200409438639775</v>
       </c>
       <c r="D2">
-        <v>-0.03171429715724879</v>
+        <v>-0.0359360364866169</v>
       </c>
       <c r="E2">
-        <v>0.1014273583892712</v>
+        <v>-0.1367031717327892</v>
       </c>
       <c r="F2">
-        <v>0.06060222973499092</v>
+        <v>0.0110174036775672</v>
       </c>
       <c r="G2">
-        <v>-0.07573654500930135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0763171749996306</v>
+      </c>
+      <c r="H2">
+        <v>-0.07989924936560305</v>
+      </c>
+      <c r="I2">
+        <v>-0.07892716786588548</v>
+      </c>
+      <c r="J2">
+        <v>0.03250775336896099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.198729484619478</v>
+        <v>0.1568071755707989</v>
       </c>
       <c r="C3">
-        <v>0.07518481837196453</v>
+        <v>0.08821179334998994</v>
       </c>
       <c r="D3">
-        <v>0.06869330519461862</v>
+        <v>0.04362986903745681</v>
       </c>
       <c r="E3">
-        <v>0.324072303369231</v>
+        <v>-0.3648792521691862</v>
       </c>
       <c r="F3">
-        <v>-0.02318975702005079</v>
+        <v>0.1201373624658889</v>
       </c>
       <c r="G3">
-        <v>-0.3133315693739395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02510626112241034</v>
+      </c>
+      <c r="H3">
+        <v>-0.2731108318675285</v>
+      </c>
+      <c r="I3">
+        <v>-0.1609049760403485</v>
+      </c>
+      <c r="J3">
+        <v>-0.07792540912774576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09370658074114639</v>
+        <v>0.07271089968207949</v>
       </c>
       <c r="C4">
-        <v>0.0163460921759759</v>
+        <v>0.02965435841971683</v>
       </c>
       <c r="D4">
-        <v>-0.004814498502415131</v>
+        <v>-0.02328844004740866</v>
       </c>
       <c r="E4">
-        <v>0.09069685686380126</v>
+        <v>-0.08710446241544563</v>
       </c>
       <c r="F4">
-        <v>0.03674957484901425</v>
+        <v>0.05550061228187349</v>
       </c>
       <c r="G4">
-        <v>-0.01999788235567442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03315073784991646</v>
+      </c>
+      <c r="H4">
+        <v>-0.03907375721048058</v>
+      </c>
+      <c r="I4">
+        <v>-0.01197376100217235</v>
+      </c>
+      <c r="J4">
+        <v>-0.04329899175507355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.009989235298510786</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.005104376297370859</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.002038011446585681</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006354669976023269</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.0002914474891773902</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01334855946382118</v>
+      </c>
+      <c r="H6">
+        <v>-0.001513554126109039</v>
+      </c>
+      <c r="I6">
+        <v>-0.001562816205665514</v>
+      </c>
+      <c r="J6">
+        <v>-0.001457177896810617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04066487754333861</v>
+        <v>0.03489498151793487</v>
       </c>
       <c r="C7">
-        <v>0.001363098458420199</v>
+        <v>0.0142348683383862</v>
       </c>
       <c r="D7">
-        <v>-0.02685498230749601</v>
+        <v>-0.01762538418730132</v>
       </c>
       <c r="E7">
-        <v>0.07256340267926328</v>
+        <v>-0.05753193226408278</v>
       </c>
       <c r="F7">
-        <v>-0.05442685789702826</v>
+        <v>0.02993489607702718</v>
       </c>
       <c r="G7">
-        <v>-0.01936523806568942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01957097458160049</v>
+      </c>
+      <c r="H7">
+        <v>-0.0442181022778388</v>
+      </c>
+      <c r="I7">
+        <v>0.006128531241948908</v>
+      </c>
+      <c r="J7">
+        <v>-0.0296093498568826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03920438590989653</v>
+        <v>0.03078915559521318</v>
       </c>
       <c r="C8">
-        <v>0.03171387532615456</v>
+        <v>0.03483297510013288</v>
       </c>
       <c r="D8">
-        <v>0.006137451890289147</v>
+        <v>-0.008562527724152724</v>
       </c>
       <c r="E8">
-        <v>0.07300144430886135</v>
+        <v>-0.07755761703356683</v>
       </c>
       <c r="F8">
-        <v>-0.004632140963940328</v>
+        <v>0.04739223377298853</v>
       </c>
       <c r="G8">
-        <v>-0.04661849172302486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.004845411203367764</v>
+      </c>
+      <c r="H8">
+        <v>-0.05595612561870243</v>
+      </c>
+      <c r="I8">
+        <v>-0.03402463583095657</v>
+      </c>
+      <c r="J8">
+        <v>-0.02324628722721389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08412453961923839</v>
+        <v>0.06219491210390576</v>
       </c>
       <c r="C9">
-        <v>0.01618336156016636</v>
+        <v>0.02818332712448116</v>
       </c>
       <c r="D9">
-        <v>-0.01721091979992716</v>
+        <v>-0.0250607248192808</v>
       </c>
       <c r="E9">
-        <v>0.08356897853731</v>
+        <v>-0.08361377452523054</v>
       </c>
       <c r="F9">
-        <v>0.02104966296061708</v>
+        <v>0.05996452351602481</v>
       </c>
       <c r="G9">
-        <v>-0.02325074935967398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02160355797486902</v>
+      </c>
+      <c r="H9">
+        <v>-0.03515867772269483</v>
+      </c>
+      <c r="I9">
+        <v>-0.009369427698001389</v>
+      </c>
+      <c r="J9">
+        <v>-0.01015777064721737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.02369327751894768</v>
+        <v>0.003367343101682625</v>
       </c>
       <c r="C10">
-        <v>-0.1606889838507116</v>
+        <v>-0.1588008893724896</v>
       </c>
       <c r="D10">
-        <v>0.004038030111362135</v>
+        <v>0.01468902145112101</v>
       </c>
       <c r="E10">
-        <v>0.03373130629173119</v>
+        <v>-0.04769806077279158</v>
       </c>
       <c r="F10">
-        <v>-0.007640988458572409</v>
+        <v>0.005182745039323175</v>
       </c>
       <c r="G10">
-        <v>0.01580428028777643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01316906405412106</v>
+      </c>
+      <c r="H10">
+        <v>0.0196680835777762</v>
+      </c>
+      <c r="I10">
+        <v>-0.105885376647414</v>
+      </c>
+      <c r="J10">
+        <v>-0.06787834885110923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05918432973179774</v>
+        <v>0.05096345207473816</v>
       </c>
       <c r="C11">
-        <v>-0.003982758829397242</v>
+        <v>0.01494868834528706</v>
       </c>
       <c r="D11">
-        <v>0.01083624987480173</v>
+        <v>-0.005079201394614563</v>
       </c>
       <c r="E11">
-        <v>0.04343198799992059</v>
+        <v>-0.04889600303766652</v>
       </c>
       <c r="F11">
-        <v>-0.004337689167488388</v>
+        <v>0.003983710226483572</v>
       </c>
       <c r="G11">
-        <v>0.01238458522329161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0003606983184043113</v>
+      </c>
+      <c r="H11">
+        <v>-0.02042050558092772</v>
+      </c>
+      <c r="I11">
+        <v>0.01139213397602394</v>
+      </c>
+      <c r="J11">
+        <v>0.004703483989695874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04915503772375916</v>
+        <v>0.04877723407082564</v>
       </c>
       <c r="C12">
-        <v>0.001436366240854617</v>
+        <v>0.01648233014402619</v>
       </c>
       <c r="D12">
-        <v>0.0052122252878567</v>
+        <v>-0.007500555004161764</v>
       </c>
       <c r="E12">
-        <v>0.0278652275908848</v>
+        <v>-0.02544941159382396</v>
       </c>
       <c r="F12">
-        <v>-0.009133531718408205</v>
+        <v>0.01939537786712655</v>
       </c>
       <c r="G12">
-        <v>-0.001149531156883242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003808222871396822</v>
+      </c>
+      <c r="H12">
+        <v>-0.009710049432348057</v>
+      </c>
+      <c r="I12">
+        <v>0.0183408144010056</v>
+      </c>
+      <c r="J12">
+        <v>0.007286404818258637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05653818684387556</v>
+        <v>0.03919476521346899</v>
       </c>
       <c r="C13">
-        <v>0.01234032412955064</v>
+        <v>0.01966474467150489</v>
       </c>
       <c r="D13">
-        <v>0.01516558091277442</v>
+        <v>-0.005103586504153827</v>
       </c>
       <c r="E13">
-        <v>0.1088800947455023</v>
+        <v>-0.1051562957083199</v>
       </c>
       <c r="F13">
-        <v>0.0004811941639521223</v>
+        <v>0.009470228097707869</v>
       </c>
       <c r="G13">
-        <v>-0.01894327751840083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.0009653525184359587</v>
+      </c>
+      <c r="H13">
+        <v>-0.05336571435218527</v>
+      </c>
+      <c r="I13">
+        <v>-0.03498287100431619</v>
+      </c>
+      <c r="J13">
+        <v>0.01621102643506617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03838064706599871</v>
+        <v>0.02896721059842471</v>
       </c>
       <c r="C14">
-        <v>0.002230658032801771</v>
+        <v>0.01238643435022401</v>
       </c>
       <c r="D14">
-        <v>-0.01643533260140747</v>
+        <v>-0.02138124806026943</v>
       </c>
       <c r="E14">
-        <v>0.02301960147336853</v>
+        <v>-0.03699357805402914</v>
       </c>
       <c r="F14">
-        <v>-0.006367455189526317</v>
+        <v>0.01988285582237861</v>
       </c>
       <c r="G14">
-        <v>-0.03482471400392791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01183015003605734</v>
+      </c>
+      <c r="H14">
+        <v>-0.06294519112856527</v>
+      </c>
+      <c r="I14">
+        <v>-0.02242052861446281</v>
+      </c>
+      <c r="J14">
+        <v>-0.01192069348764889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05191716141799087</v>
+        <v>0.04313779397586948</v>
       </c>
       <c r="C16">
-        <v>0.0146273964289979</v>
+        <v>0.02439653239625882</v>
       </c>
       <c r="D16">
-        <v>0.02231593345563166</v>
+        <v>0.001461918975654331</v>
       </c>
       <c r="E16">
-        <v>0.04282088674882095</v>
+        <v>-0.04555651999749456</v>
       </c>
       <c r="F16">
-        <v>-0.005911843941650272</v>
+        <v>0.008129775156556891</v>
       </c>
       <c r="G16">
-        <v>0.007050001358264657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00575579989000244</v>
+      </c>
+      <c r="H16">
+        <v>-0.02000531303343161</v>
+      </c>
+      <c r="I16">
+        <v>0.01350626272664202</v>
+      </c>
+      <c r="J16">
+        <v>0.0002620470298410463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.04472007286492392</v>
+        <v>0.04681767839785943</v>
       </c>
       <c r="C19">
-        <v>0.02686036753641322</v>
+        <v>0.03159980842240977</v>
       </c>
       <c r="D19">
-        <v>0.01028129075220014</v>
+        <v>-0.00688003704102966</v>
       </c>
       <c r="E19">
-        <v>0.07962386116639361</v>
+        <v>-0.09298427282148611</v>
       </c>
       <c r="F19">
-        <v>-0.009539482440194112</v>
+        <v>0.03226374193196465</v>
       </c>
       <c r="G19">
-        <v>-0.04023730862785003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.009578088809586414</v>
+      </c>
+      <c r="H19">
+        <v>-0.07469694770622132</v>
+      </c>
+      <c r="I19">
+        <v>-0.06932792406998851</v>
+      </c>
+      <c r="J19">
+        <v>-0.001349699855511246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03305975017763852</v>
+        <v>0.01782197365874828</v>
       </c>
       <c r="C20">
-        <v>0.0300357214846739</v>
+        <v>0.03160779143963601</v>
       </c>
       <c r="D20">
-        <v>0.00196017600905358</v>
+        <v>-0.01298695907516705</v>
       </c>
       <c r="E20">
-        <v>0.07262688222697167</v>
+        <v>-0.07197449085988956</v>
       </c>
       <c r="F20">
-        <v>-0.02030666050888455</v>
+        <v>0.0342136868759639</v>
       </c>
       <c r="G20">
-        <v>-0.0429945308564758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01323517947158614</v>
+      </c>
+      <c r="H20">
+        <v>-0.07679564849560531</v>
+      </c>
+      <c r="I20">
+        <v>-0.01750596760149894</v>
+      </c>
+      <c r="J20">
+        <v>-0.02350873181500568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03602309023442399</v>
+        <v>0.01787582939310906</v>
       </c>
       <c r="C21">
-        <v>0.01116546553416638</v>
+        <v>0.02149335137080416</v>
       </c>
       <c r="D21">
-        <v>0.01654109882874984</v>
+        <v>0.008667385425154238</v>
       </c>
       <c r="E21">
-        <v>0.08818809478068307</v>
+        <v>-0.08071817697060873</v>
       </c>
       <c r="F21">
-        <v>0.02291182436559758</v>
+        <v>0.02770543032903578</v>
       </c>
       <c r="G21">
-        <v>-0.02679891592669656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01398966701458715</v>
+      </c>
+      <c r="H21">
+        <v>-0.04553201971160985</v>
+      </c>
+      <c r="I21">
+        <v>-0.01443534897337788</v>
+      </c>
+      <c r="J21">
+        <v>0.02752016074886853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04697476384246529</v>
+        <v>0.04122944106335524</v>
       </c>
       <c r="C24">
-        <v>0.007372827352524157</v>
+        <v>0.01411024937173497</v>
       </c>
       <c r="D24">
-        <v>0.007683612190025456</v>
+        <v>-0.004979973304934101</v>
       </c>
       <c r="E24">
-        <v>0.0550137559679524</v>
+        <v>-0.04956669191588368</v>
       </c>
       <c r="F24">
-        <v>-0.008639571368015898</v>
+        <v>0.008389478357933373</v>
       </c>
       <c r="G24">
-        <v>0.01046902892173051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01216571185819259</v>
+      </c>
+      <c r="H24">
+        <v>-0.01614985954076728</v>
+      </c>
+      <c r="I24">
+        <v>0.0101330512768049</v>
+      </c>
+      <c r="J24">
+        <v>-0.0009989876950068626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.0504618244189907</v>
+        <v>0.0441885357867556</v>
       </c>
       <c r="C25">
-        <v>-0.002772347232286266</v>
+        <v>0.0150647390786522</v>
       </c>
       <c r="D25">
-        <v>0.008246695098300942</v>
+        <v>-0.004069845243781431</v>
       </c>
       <c r="E25">
-        <v>0.04151433166404508</v>
+        <v>-0.0480627067514689</v>
       </c>
       <c r="F25">
-        <v>-0.006247768661305116</v>
+        <v>0.01125705207211346</v>
       </c>
       <c r="G25">
-        <v>0.01440442486063958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.006324481471607465</v>
+      </c>
+      <c r="H25">
+        <v>-0.008893418450698968</v>
+      </c>
+      <c r="I25">
+        <v>0.01181048911097613</v>
+      </c>
+      <c r="J25">
+        <v>0.00967553159296251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-6.299124826276144e-05</v>
+        <v>0.007872317551399491</v>
       </c>
       <c r="C26">
-        <v>0.01554377686990423</v>
+        <v>0.01684329663121465</v>
       </c>
       <c r="D26">
-        <v>-0.004892175850063778</v>
+        <v>0.003503503227840582</v>
       </c>
       <c r="E26">
-        <v>0.05419510742041274</v>
+        <v>-0.05816975512019762</v>
       </c>
       <c r="F26">
-        <v>0.005532373859178653</v>
+        <v>-0.001275860457730207</v>
       </c>
       <c r="G26">
-        <v>-0.01315664151530621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.002546244818990202</v>
+      </c>
+      <c r="H26">
+        <v>-0.03628056053378775</v>
+      </c>
+      <c r="I26">
+        <v>0.002523443107848109</v>
+      </c>
+      <c r="J26">
+        <v>-0.01156536695151497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1105888736118353</v>
+        <v>0.08944512050634384</v>
       </c>
       <c r="C27">
-        <v>-0.001922477470899203</v>
+        <v>0.01457011520927056</v>
       </c>
       <c r="D27">
-        <v>-0.01109729700475028</v>
+        <v>-0.02907839328096538</v>
       </c>
       <c r="E27">
-        <v>0.1168444105624683</v>
+        <v>-0.08756351468859483</v>
       </c>
       <c r="F27">
-        <v>-0.008152168574746564</v>
+        <v>0.04601040281448125</v>
       </c>
       <c r="G27">
-        <v>0.01691409761043413</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.003200997671621011</v>
+      </c>
+      <c r="H27">
+        <v>-0.01036900832345151</v>
+      </c>
+      <c r="I27">
+        <v>0.002644158945568372</v>
+      </c>
+      <c r="J27">
+        <v>-0.01794776880513973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.02886908553215848</v>
+        <v>0.009238061431895424</v>
       </c>
       <c r="C28">
-        <v>-0.2344788239475309</v>
+        <v>-0.2276907575671216</v>
       </c>
       <c r="D28">
-        <v>0.01684958083964127</v>
+        <v>0.02176537556594011</v>
       </c>
       <c r="E28">
-        <v>0.01447256128259799</v>
+        <v>-0.03505608157752912</v>
       </c>
       <c r="F28">
-        <v>-0.002181031519477787</v>
+        <v>0.001327651235636017</v>
       </c>
       <c r="G28">
-        <v>0.04076129990611019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0172489894599744</v>
+      </c>
+      <c r="H28">
+        <v>0.04097561465073357</v>
+      </c>
+      <c r="I28">
+        <v>-0.1374261135274771</v>
+      </c>
+      <c r="J28">
+        <v>-0.09865829216826744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.0192223301526169</v>
+        <v>0.01965906096277579</v>
       </c>
       <c r="C29">
-        <v>0.01402414743336539</v>
+        <v>0.01856907674069946</v>
       </c>
       <c r="D29">
-        <v>-0.01750663451808792</v>
+        <v>-0.01832421105426536</v>
       </c>
       <c r="E29">
-        <v>0.03763785249617888</v>
+        <v>-0.03553449115232134</v>
       </c>
       <c r="F29">
-        <v>0.002150815012245455</v>
+        <v>0.03041406654939147</v>
       </c>
       <c r="G29">
-        <v>-0.037994640803317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01605046910325023</v>
+      </c>
+      <c r="H29">
+        <v>-0.06203976095871414</v>
+      </c>
+      <c r="I29">
+        <v>-0.009956261591313634</v>
+      </c>
+      <c r="J29">
+        <v>-0.01386029133829797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1034921830641964</v>
+        <v>0.1028999509154052</v>
       </c>
       <c r="C30">
-        <v>-0.003684223320358725</v>
+        <v>0.02556010058579546</v>
       </c>
       <c r="D30">
-        <v>-0.00454651975172606</v>
+        <v>-0.03027826884709773</v>
       </c>
       <c r="E30">
-        <v>0.1301507372429564</v>
+        <v>-0.1138427770793645</v>
       </c>
       <c r="F30">
-        <v>-0.01346193844162453</v>
+        <v>0.01688124847274654</v>
       </c>
       <c r="G30">
-        <v>0.08647142579473793</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02690661278425664</v>
+      </c>
+      <c r="H30">
+        <v>-0.00831749928720675</v>
+      </c>
+      <c r="I30">
+        <v>0.02580253591220128</v>
+      </c>
+      <c r="J30">
+        <v>0.02160365711533654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05337320412310436</v>
+        <v>0.05694344979906151</v>
       </c>
       <c r="C31">
-        <v>0.008678033896726714</v>
+        <v>0.01517410090137637</v>
       </c>
       <c r="D31">
-        <v>-0.01851306089935089</v>
+        <v>-0.015006379462987</v>
       </c>
       <c r="E31">
-        <v>-0.0002214316612652072</v>
+        <v>-0.01905541576759888</v>
       </c>
       <c r="F31">
-        <v>0.008573491145444045</v>
+        <v>-0.01854302624788574</v>
       </c>
       <c r="G31">
-        <v>-0.01845114716563867</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03248974996119263</v>
+      </c>
+      <c r="H31">
+        <v>-0.04932202745659201</v>
+      </c>
+      <c r="I31">
+        <v>-0.01272025936894105</v>
+      </c>
+      <c r="J31">
+        <v>-0.0186424048342132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06644937149047572</v>
+        <v>0.04826679945048667</v>
       </c>
       <c r="C32">
-        <v>0.01498282069363825</v>
+        <v>0.04088614117036031</v>
       </c>
       <c r="D32">
-        <v>-0.0001190860230984656</v>
+        <v>-0.01896750172326222</v>
       </c>
       <c r="E32">
-        <v>0.113048718872947</v>
+        <v>-0.09873902852439666</v>
       </c>
       <c r="F32">
-        <v>-0.03675032314470227</v>
+        <v>0.04099894060929074</v>
       </c>
       <c r="G32">
-        <v>-0.009411245936678159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01953356892061111</v>
+      </c>
+      <c r="H32">
+        <v>-0.05883957965483266</v>
+      </c>
+      <c r="I32">
+        <v>-0.03951149497009111</v>
+      </c>
+      <c r="J32">
+        <v>0.02136845800488848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06629903200262445</v>
+        <v>0.05892981794283161</v>
       </c>
       <c r="C33">
-        <v>0.02172613492804058</v>
+        <v>0.03825629519291004</v>
       </c>
       <c r="D33">
-        <v>-0.007286132269945165</v>
+        <v>-0.004389960757309499</v>
       </c>
       <c r="E33">
-        <v>0.07643202017259197</v>
+        <v>-0.08963696495599216</v>
       </c>
       <c r="F33">
-        <v>0.01726502033693203</v>
+        <v>0.01228089143590459</v>
       </c>
       <c r="G33">
-        <v>-0.007338536117346004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01090144536819959</v>
+      </c>
+      <c r="H33">
+        <v>-0.05210971420501166</v>
+      </c>
+      <c r="I33">
+        <v>0.008219180980037809</v>
+      </c>
+      <c r="J33">
+        <v>0.00193737925284789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04592673215025354</v>
+        <v>0.04255834045075214</v>
       </c>
       <c r="C34">
-        <v>0.00993986615020071</v>
+        <v>0.01971431787616507</v>
       </c>
       <c r="D34">
-        <v>0.008400116019977298</v>
+        <v>-0.008082581796524674</v>
       </c>
       <c r="E34">
-        <v>0.02508978842153078</v>
+        <v>-0.03867256529081467</v>
       </c>
       <c r="F34">
-        <v>-0.008037697828678496</v>
+        <v>0.009179503387581273</v>
       </c>
       <c r="G34">
-        <v>-0.005946824708524767</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.003790014385789177</v>
+      </c>
+      <c r="H34">
+        <v>-0.02382146769611576</v>
+      </c>
+      <c r="I34">
+        <v>0.004797460011604008</v>
+      </c>
+      <c r="J34">
+        <v>0.01263556110473413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.009117471317839953</v>
+        <v>0.01255990458222801</v>
       </c>
       <c r="C36">
-        <v>-0.009352811374927857</v>
+        <v>5.216939360985168e-05</v>
       </c>
       <c r="D36">
-        <v>-0.002588589619571432</v>
+        <v>-0.005728652248482267</v>
       </c>
       <c r="E36">
-        <v>0.02533754626317105</v>
+        <v>-0.0291887265808925</v>
       </c>
       <c r="F36">
-        <v>0.0009197888973647379</v>
+        <v>0.0115507644124479</v>
       </c>
       <c r="G36">
-        <v>-0.003969806569623392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.009874834980643073</v>
+      </c>
+      <c r="H36">
+        <v>-0.03659819403358754</v>
+      </c>
+      <c r="I36">
+        <v>-0.01380943754576035</v>
+      </c>
+      <c r="J36">
+        <v>0.004913753406363363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05224890722659913</v>
+        <v>0.02999313770814389</v>
       </c>
       <c r="C38">
-        <v>0.001695591754331609</v>
+        <v>0.008473075971098115</v>
       </c>
       <c r="D38">
-        <v>-0.02440048715819307</v>
+        <v>-0.007230933373960506</v>
       </c>
       <c r="E38">
-        <v>0.03247636930790974</v>
+        <v>-0.04624153232904221</v>
       </c>
       <c r="F38">
-        <v>0.00192754620423023</v>
+        <v>0.02013574543642071</v>
       </c>
       <c r="G38">
-        <v>-0.01537223406171936</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01674838403959044</v>
+      </c>
+      <c r="H38">
+        <v>-0.009999194669283264</v>
+      </c>
+      <c r="I38">
+        <v>-0.01085063764177074</v>
+      </c>
+      <c r="J38">
+        <v>0.01379602798872086</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.0760877988633817</v>
+        <v>0.06338616839801871</v>
       </c>
       <c r="C39">
-        <v>0.005211743400022086</v>
+        <v>0.02659717234273426</v>
       </c>
       <c r="D39">
-        <v>0.001329292497881914</v>
+        <v>-0.01850047496250488</v>
       </c>
       <c r="E39">
-        <v>0.04889461007760556</v>
+        <v>-0.0631352576895525</v>
       </c>
       <c r="F39">
-        <v>0.007222790063394702</v>
+        <v>0.003201838577149794</v>
       </c>
       <c r="G39">
-        <v>0.01734074909130607</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.002816269183500257</v>
+      </c>
+      <c r="H39">
+        <v>-0.02178173380852381</v>
+      </c>
+      <c r="I39">
+        <v>0.017267916362641</v>
+      </c>
+      <c r="J39">
+        <v>0.02083482501605692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.06829302796527841</v>
+        <v>0.05528066910245628</v>
       </c>
       <c r="C40">
-        <v>0.0250582426089419</v>
+        <v>0.03233732155899724</v>
       </c>
       <c r="D40">
-        <v>0.005484635204896983</v>
+        <v>-0.02139008905605441</v>
       </c>
       <c r="E40">
-        <v>0.1140448823932365</v>
+        <v>-0.112650919132275</v>
       </c>
       <c r="F40">
-        <v>0.008137757168351436</v>
+        <v>0.003666125973775634</v>
       </c>
       <c r="G40">
-        <v>-0.05635634078074338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.008896143013028088</v>
+      </c>
+      <c r="H40">
+        <v>-0.0781290174723647</v>
+      </c>
+      <c r="I40">
+        <v>-0.02615992727329139</v>
+      </c>
+      <c r="J40">
+        <v>0.003924863098895174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.002521885151270215</v>
+        <v>1.56806025552983e-05</v>
       </c>
       <c r="C41">
-        <v>0.007508639775067459</v>
+        <v>0.009685632580655213</v>
       </c>
       <c r="D41">
-        <v>-0.01226289037117051</v>
+        <v>-0.003674978400155514</v>
       </c>
       <c r="E41">
-        <v>0.02271706105020231</v>
+        <v>-0.0198519763906186</v>
       </c>
       <c r="F41">
-        <v>0.02281626197130455</v>
+        <v>0.008305578850632237</v>
       </c>
       <c r="G41">
-        <v>-0.02462656480361755</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02783521518134994</v>
+      </c>
+      <c r="H41">
+        <v>-0.04165795650195654</v>
+      </c>
+      <c r="I41">
+        <v>-0.01693657071568587</v>
+      </c>
+      <c r="J41">
+        <v>-0.02814501077470407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.153323553071968</v>
+        <v>0.243493008978729</v>
       </c>
       <c r="C42">
-        <v>0.1498378929219615</v>
+        <v>0.1392474959509181</v>
       </c>
       <c r="D42">
-        <v>0.9322044018693555</v>
+        <v>0.9177751980076295</v>
       </c>
       <c r="E42">
-        <v>-0.0603143893920456</v>
+        <v>0.110060595751121</v>
       </c>
       <c r="F42">
-        <v>0.04785098430449424</v>
+        <v>-0.186636223490537</v>
       </c>
       <c r="G42">
-        <v>0.1398367574753177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.007452566665606617</v>
+      </c>
+      <c r="H42">
+        <v>0.01240340515189474</v>
+      </c>
+      <c r="I42">
+        <v>-0.03063987574874404</v>
+      </c>
+      <c r="J42">
+        <v>-0.04894738975485364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008102538423980401</v>
+        <v>0.001057767924665796</v>
       </c>
       <c r="C43">
-        <v>0.009112858731605703</v>
+        <v>0.01331735058413543</v>
       </c>
       <c r="D43">
-        <v>-0.01651685389366724</v>
+        <v>-0.005780978163305577</v>
       </c>
       <c r="E43">
-        <v>0.03732025813133816</v>
+        <v>-0.03144193743877244</v>
       </c>
       <c r="F43">
-        <v>-0.008252335535762906</v>
+        <v>0.005952775624239461</v>
       </c>
       <c r="G43">
-        <v>-0.02163559289855331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005896336091078555</v>
+      </c>
+      <c r="H43">
+        <v>-0.03605236775725425</v>
+      </c>
+      <c r="I43">
+        <v>-0.007106016740154642</v>
+      </c>
+      <c r="J43">
+        <v>-0.02051148875167629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04415862720332665</v>
+        <v>0.02919453485473817</v>
       </c>
       <c r="C44">
-        <v>0.02592691732947464</v>
+        <v>0.03170231623330225</v>
       </c>
       <c r="D44">
-        <v>-0.004613944873860056</v>
+        <v>-0.001249645174838647</v>
       </c>
       <c r="E44">
-        <v>0.1147829270856108</v>
+        <v>-0.1218486145581951</v>
       </c>
       <c r="F44">
-        <v>0.04175887165036535</v>
+        <v>0.03244681836894524</v>
       </c>
       <c r="G44">
-        <v>-0.09041570302796975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02623261543376904</v>
+      </c>
+      <c r="H44">
+        <v>-0.1106188303994759</v>
+      </c>
+      <c r="I44">
+        <v>-0.04190547448974379</v>
+      </c>
+      <c r="J44">
+        <v>-0.01027699157331988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02229617509779476</v>
+        <v>0.02104426067085062</v>
       </c>
       <c r="C46">
-        <v>0.009040527174854558</v>
+        <v>0.02313586529588986</v>
       </c>
       <c r="D46">
-        <v>-0.0227441150802925</v>
+        <v>-0.01716087308762521</v>
       </c>
       <c r="E46">
-        <v>0.02872344869510575</v>
+        <v>-0.04747823183470449</v>
       </c>
       <c r="F46">
-        <v>0.01938375668572437</v>
+        <v>0.01371960116408565</v>
       </c>
       <c r="G46">
-        <v>-0.03700166786984327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01626286763546199</v>
+      </c>
+      <c r="H46">
+        <v>-0.06333234912997686</v>
+      </c>
+      <c r="I46">
+        <v>-0.005808493860234023</v>
+      </c>
+      <c r="J46">
+        <v>-0.03325773974766626</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07813045438002134</v>
+        <v>0.0866693469014706</v>
       </c>
       <c r="C47">
-        <v>0.001339573199350455</v>
+        <v>0.01225713355583915</v>
       </c>
       <c r="D47">
-        <v>-0.01852653617281056</v>
+        <v>-0.02115542160894154</v>
       </c>
       <c r="E47">
-        <v>-0.001338418249173555</v>
+        <v>-0.00584227282216655</v>
       </c>
       <c r="F47">
-        <v>0.004614359566342209</v>
+        <v>-0.003477836428762766</v>
       </c>
       <c r="G47">
-        <v>-0.04007125393318799</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02680735100668612</v>
+      </c>
+      <c r="H47">
+        <v>-0.0717668472460143</v>
+      </c>
+      <c r="I47">
+        <v>-0.01518449436305765</v>
+      </c>
+      <c r="J47">
+        <v>-0.02698681177220865</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01165012190999389</v>
+        <v>0.01328497810134615</v>
       </c>
       <c r="C48">
-        <v>0.01490474357983722</v>
+        <v>0.01786082751726193</v>
       </c>
       <c r="D48">
-        <v>-0.01053106483149669</v>
+        <v>-0.005180840463468003</v>
       </c>
       <c r="E48">
-        <v>0.0381474271875714</v>
+        <v>-0.04037319766800491</v>
       </c>
       <c r="F48">
-        <v>0.005529008597045828</v>
+        <v>0.01246545274366307</v>
       </c>
       <c r="G48">
-        <v>-0.003896921633287865</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002356769670960749</v>
+      </c>
+      <c r="H48">
+        <v>-0.0251777010789304</v>
+      </c>
+      <c r="I48">
+        <v>-0.01079210066476109</v>
+      </c>
+      <c r="J48">
+        <v>-0.01338250396970547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07606102988475175</v>
+        <v>0.07980607032397685</v>
       </c>
       <c r="C50">
-        <v>0.02831488321329029</v>
+        <v>0.03503741403542281</v>
       </c>
       <c r="D50">
-        <v>-0.01455995585662226</v>
+        <v>-0.017522454419428</v>
       </c>
       <c r="E50">
-        <v>-0.01239498147859685</v>
+        <v>-0.01117114465943297</v>
       </c>
       <c r="F50">
-        <v>0.01331736574233905</v>
+        <v>-0.005320043067860231</v>
       </c>
       <c r="G50">
-        <v>-0.01342342642636432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.00617370175444896</v>
+      </c>
+      <c r="H50">
+        <v>-0.04989011367671264</v>
+      </c>
+      <c r="I50">
+        <v>-0.01946246354326015</v>
+      </c>
+      <c r="J50">
+        <v>0.003584093152370449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.0638079991706737</v>
+        <v>0.04712448411702797</v>
       </c>
       <c r="C51">
-        <v>-0.0343733292975197</v>
+        <v>-0.01133853803272892</v>
       </c>
       <c r="D51">
-        <v>-0.01192897046159715</v>
+        <v>-0.008244666430717392</v>
       </c>
       <c r="E51">
-        <v>0.07781524778316025</v>
+        <v>-0.1025654954811981</v>
       </c>
       <c r="F51">
-        <v>0.0481830833233037</v>
+        <v>0.00608822228482993</v>
       </c>
       <c r="G51">
-        <v>-0.0127078347595729</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04693731210959894</v>
+      </c>
+      <c r="H51">
+        <v>-0.05014464350476162</v>
+      </c>
+      <c r="I51">
+        <v>-0.02329376791195253</v>
+      </c>
+      <c r="J51">
+        <v>-0.06511716858203585</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1413772487295034</v>
+        <v>0.1284345622793981</v>
       </c>
       <c r="C53">
-        <v>0.004128744567930143</v>
+        <v>0.03189451852372729</v>
       </c>
       <c r="D53">
-        <v>-0.04283479632474523</v>
+        <v>-0.04562813029973894</v>
       </c>
       <c r="E53">
-        <v>-0.002826195134321413</v>
+        <v>0.01418258215696397</v>
       </c>
       <c r="F53">
-        <v>0.01085820039590195</v>
+        <v>-0.008295792072771794</v>
       </c>
       <c r="G53">
-        <v>-0.03180072421332337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02989458625111083</v>
+      </c>
+      <c r="H53">
+        <v>-0.0171241901422485</v>
+      </c>
+      <c r="I53">
+        <v>0.01654218110856842</v>
+      </c>
+      <c r="J53">
+        <v>-0.08620732995078322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.01993977599503723</v>
+        <v>0.02144798685650792</v>
       </c>
       <c r="C54">
-        <v>-0.01105842508842981</v>
+        <v>0.001437831156486296</v>
       </c>
       <c r="D54">
-        <v>-0.02711524170879456</v>
+        <v>-0.02488028229671084</v>
       </c>
       <c r="E54">
-        <v>0.04094450362632519</v>
+        <v>-0.04180663476146931</v>
       </c>
       <c r="F54">
-        <v>0.03106437218421814</v>
+        <v>0.02311034830575912</v>
       </c>
       <c r="G54">
-        <v>-0.04361436565534394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02959612160907918</v>
+      </c>
+      <c r="H54">
+        <v>-0.06954465855563612</v>
+      </c>
+      <c r="I54">
+        <v>-0.03895889124509946</v>
+      </c>
+      <c r="J54">
+        <v>-0.02830782483717084</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.0953497950535048</v>
+        <v>0.1017550137842813</v>
       </c>
       <c r="C55">
-        <v>-0.005706856459882345</v>
+        <v>0.01578021810020715</v>
       </c>
       <c r="D55">
-        <v>-0.03345909016371471</v>
+        <v>-0.03002476802634403</v>
       </c>
       <c r="E55">
-        <v>0.01622018113631757</v>
+        <v>0.01696404852098498</v>
       </c>
       <c r="F55">
-        <v>-0.02015461415309374</v>
+        <v>0.03128051296918884</v>
       </c>
       <c r="G55">
-        <v>-0.02449133505625553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005152009513807172</v>
+      </c>
+      <c r="H55">
+        <v>-0.03395875655692696</v>
+      </c>
+      <c r="I55">
+        <v>0.02465549436885855</v>
+      </c>
+      <c r="J55">
+        <v>-0.06736256242696703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1780072864138827</v>
+        <v>0.169417323706882</v>
       </c>
       <c r="C56">
-        <v>-0.02587027074681584</v>
+        <v>0.0109661506904678</v>
       </c>
       <c r="D56">
-        <v>-0.07672898774636756</v>
+        <v>-0.08867124524639466</v>
       </c>
       <c r="E56">
-        <v>-0.04950066496056321</v>
+        <v>0.06994657170331527</v>
       </c>
       <c r="F56">
-        <v>-0.04344379384581268</v>
+        <v>0.001707155444761482</v>
       </c>
       <c r="G56">
-        <v>-0.02178227562400841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01331780606141115</v>
+      </c>
+      <c r="H56">
+        <v>0.03050645866484786</v>
+      </c>
+      <c r="I56">
+        <v>0.06072996963198925</v>
+      </c>
+      <c r="J56">
+        <v>-0.07288601847503764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09483244677255664</v>
+        <v>0.07368774893569836</v>
       </c>
       <c r="C57">
-        <v>0.01395741804296086</v>
+        <v>0.02035115887096272</v>
       </c>
       <c r="D57">
-        <v>-0.01651723254187329</v>
+        <v>-0.009516523946936483</v>
       </c>
       <c r="E57">
-        <v>0.07840510751848905</v>
+        <v>-0.08272299358867152</v>
       </c>
       <c r="F57">
-        <v>-0.008204048393966445</v>
+        <v>0.01319976463882388</v>
       </c>
       <c r="G57">
-        <v>-0.04118089957200465</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.006880484045512538</v>
+      </c>
+      <c r="H57">
+        <v>-0.05128965497866794</v>
+      </c>
+      <c r="I57">
+        <v>0.01511919226685922</v>
+      </c>
+      <c r="J57">
+        <v>-0.01235862649167441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.168702301358162</v>
+        <v>0.1932715599859642</v>
       </c>
       <c r="C58">
-        <v>-0.007321626832937825</v>
+        <v>0.03370761280338202</v>
       </c>
       <c r="D58">
-        <v>0.05382108281118192</v>
+        <v>0.005029191288875819</v>
       </c>
       <c r="E58">
-        <v>0.07390330999133403</v>
+        <v>-0.1542286990879682</v>
       </c>
       <c r="F58">
-        <v>-0.07607320991297932</v>
+        <v>0.0007574014095237624</v>
       </c>
       <c r="G58">
-        <v>-0.1860497286772482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1599808444686609</v>
+      </c>
+      <c r="H58">
+        <v>-0.2970880034732024</v>
+      </c>
+      <c r="I58">
+        <v>-0.1699681751285936</v>
+      </c>
+      <c r="J58">
+        <v>0.1711833029888963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.0183557387959358</v>
+        <v>0.01584576807089867</v>
       </c>
       <c r="C59">
-        <v>-0.2037194516508749</v>
+        <v>-0.1997683551735058</v>
       </c>
       <c r="D59">
-        <v>-0.02316988304421442</v>
+        <v>-0.0149944454014537</v>
       </c>
       <c r="E59">
-        <v>0.02938110093338787</v>
+        <v>-0.04920537312512507</v>
       </c>
       <c r="F59">
-        <v>-0.007649875683542528</v>
+        <v>-0.01110234528829639</v>
       </c>
       <c r="G59">
-        <v>0.04759851649034558</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001940479622333762</v>
+      </c>
+      <c r="H59">
+        <v>0.03262763952956751</v>
+      </c>
+      <c r="I59">
+        <v>-0.07574809306806815</v>
+      </c>
+      <c r="J59">
+        <v>-0.03771880304696979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1716476966671616</v>
+        <v>0.1771596879354785</v>
       </c>
       <c r="C60">
-        <v>-0.1333819897099636</v>
+        <v>-0.0740865288856878</v>
       </c>
       <c r="D60">
-        <v>-0.03538829703813716</v>
+        <v>-0.02250229895863332</v>
       </c>
       <c r="E60">
-        <v>0.1794809645121629</v>
+        <v>-0.2043718148481035</v>
       </c>
       <c r="F60">
-        <v>0.002385473072065874</v>
+        <v>-0.03356968971479399</v>
       </c>
       <c r="G60">
-        <v>0.1589512863121882</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05826921820698503</v>
+      </c>
+      <c r="H60">
+        <v>0.2301528363410495</v>
+      </c>
+      <c r="I60">
+        <v>0.1049514489185667</v>
+      </c>
+      <c r="J60">
+        <v>0.04938031086155809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05135939096181186</v>
+        <v>0.03954638813146499</v>
       </c>
       <c r="C61">
-        <v>0.0001157936501445417</v>
+        <v>0.01482666263741648</v>
       </c>
       <c r="D61">
-        <v>0.00606512211913874</v>
+        <v>-0.002235010962538557</v>
       </c>
       <c r="E61">
-        <v>0.04058191506628635</v>
+        <v>-0.04647356642838697</v>
       </c>
       <c r="F61">
-        <v>0.003098420016232198</v>
+        <v>0.003681398869331049</v>
       </c>
       <c r="G61">
-        <v>0.03802190117360151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0008137332596504292</v>
+      </c>
+      <c r="H61">
+        <v>-0.003839293424097265</v>
+      </c>
+      <c r="I61">
+        <v>0.02147015771872345</v>
+      </c>
+      <c r="J61">
+        <v>0.03250806278832851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.03616003925694811</v>
+        <v>0.02832834088224614</v>
       </c>
       <c r="C63">
-        <v>-0.0112672018724326</v>
+        <v>0.0116930948726635</v>
       </c>
       <c r="D63">
-        <v>-0.008437452220114628</v>
+        <v>-0.009503721895129094</v>
       </c>
       <c r="E63">
-        <v>0.04281365186050429</v>
+        <v>-0.03558487321307508</v>
       </c>
       <c r="F63">
-        <v>-0.000189179686962659</v>
+        <v>0.0104026619216052</v>
       </c>
       <c r="G63">
-        <v>-0.01594938948345266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001442501610081802</v>
+      </c>
+      <c r="H63">
+        <v>-0.04280203082910014</v>
+      </c>
+      <c r="I63">
+        <v>-0.01278601446265126</v>
+      </c>
+      <c r="J63">
+        <v>-0.04446410042616325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09469525421934277</v>
+        <v>0.06861779168871877</v>
       </c>
       <c r="C64">
-        <v>0.000621720201466552</v>
+        <v>0.02724139353389983</v>
       </c>
       <c r="D64">
-        <v>-0.06522973871971327</v>
+        <v>-0.03810374873901987</v>
       </c>
       <c r="E64">
-        <v>0.09908729331996079</v>
+        <v>-0.06412618624125441</v>
       </c>
       <c r="F64">
-        <v>0.07996986879808578</v>
+        <v>0.06236047722125126</v>
       </c>
       <c r="G64">
-        <v>0.04057406897848661</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06701558550651462</v>
+      </c>
+      <c r="H64">
+        <v>0.01064972931844132</v>
+      </c>
+      <c r="I64">
+        <v>0.02804377319247556</v>
+      </c>
+      <c r="J64">
+        <v>-0.07097952531595365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01054757577345576</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.005758387398922277</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.002317345389851469</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004389876742869047</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.00181404673718309</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01355848926972691</v>
+      </c>
+      <c r="H65">
+        <v>0.001241298911088734</v>
+      </c>
+      <c r="I65">
+        <v>0.0009946741917442076</v>
+      </c>
+      <c r="J65">
+        <v>-0.0003710507557079206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.100838458758074</v>
+        <v>0.07564387764851609</v>
       </c>
       <c r="C66">
-        <v>0.007492735854717724</v>
+        <v>0.03498269478390177</v>
       </c>
       <c r="D66">
-        <v>-0.03685798115682248</v>
+        <v>-0.04077640781925335</v>
       </c>
       <c r="E66">
-        <v>0.09045644757660845</v>
+        <v>-0.08979111313303004</v>
       </c>
       <c r="F66">
-        <v>0.01082778345925526</v>
+        <v>0.005986563867160851</v>
       </c>
       <c r="G66">
-        <v>0.01338258031152269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.002371079596488186</v>
+      </c>
+      <c r="H66">
+        <v>-0.02055677653068416</v>
+      </c>
+      <c r="I66">
+        <v>0.04052175885346307</v>
+      </c>
+      <c r="J66">
+        <v>0.01494596003036858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05735661405582754</v>
+        <v>0.0396112758173278</v>
       </c>
       <c r="C67">
-        <v>-0.01976643673312005</v>
+        <v>-0.009335748484329363</v>
       </c>
       <c r="D67">
-        <v>-0.01210851922028502</v>
+        <v>-0.004405194881050544</v>
       </c>
       <c r="E67">
-        <v>0.02778310248016977</v>
+        <v>-0.04154438775816127</v>
       </c>
       <c r="F67">
-        <v>0.0006580383854904369</v>
+        <v>0.008555511371576433</v>
       </c>
       <c r="G67">
-        <v>-0.01994781429791002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02321918720780891</v>
+      </c>
+      <c r="H67">
+        <v>0.0007911171202198719</v>
+      </c>
+      <c r="I67">
+        <v>0.02705404776997491</v>
+      </c>
+      <c r="J67">
+        <v>0.02332740750618704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.01733064979011217</v>
+        <v>0.02396440568352305</v>
       </c>
       <c r="C68">
-        <v>-0.2452369072472761</v>
+        <v>-0.2376183924250834</v>
       </c>
       <c r="D68">
-        <v>-0.001787400043933841</v>
+        <v>-0.003956755220881238</v>
       </c>
       <c r="E68">
-        <v>0.02006646592008815</v>
+        <v>-0.03570037789705475</v>
       </c>
       <c r="F68">
-        <v>-0.01938849975536194</v>
+        <v>0.002765794727792955</v>
       </c>
       <c r="G68">
-        <v>0.03467189630243028</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01063842617952358</v>
+      </c>
+      <c r="H68">
+        <v>0.03795608758836688</v>
+      </c>
+      <c r="I68">
+        <v>-0.1513909660247214</v>
+      </c>
+      <c r="J68">
+        <v>-0.09512275567857018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06389964828216073</v>
+        <v>0.06797466842768561</v>
       </c>
       <c r="C69">
-        <v>0.003843901555995929</v>
+        <v>0.009189162926542989</v>
       </c>
       <c r="D69">
-        <v>-0.02790511317321084</v>
+        <v>-0.02726738247906672</v>
       </c>
       <c r="E69">
-        <v>0.0007227479158277092</v>
+        <v>-0.01178149844059174</v>
       </c>
       <c r="F69">
-        <v>-0.004075802902960445</v>
+        <v>-0.006868805202633939</v>
       </c>
       <c r="G69">
-        <v>-0.0064934046140645</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01766037845118738</v>
+      </c>
+      <c r="H69">
+        <v>-0.05178772042340639</v>
+      </c>
+      <c r="I69">
+        <v>0.001263119676447781</v>
+      </c>
+      <c r="J69">
+        <v>-0.006829336462106698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01132934450689956</v>
+        <v>0.03015045383541926</v>
       </c>
       <c r="C71">
-        <v>-0.2339433188395407</v>
+        <v>-0.2368164635473994</v>
       </c>
       <c r="D71">
-        <v>0.004580228586310925</v>
+        <v>0.01643453706735673</v>
       </c>
       <c r="E71">
-        <v>0.03613449648030873</v>
+        <v>-0.05300051131966158</v>
       </c>
       <c r="F71">
-        <v>-0.02199112857636427</v>
+        <v>-0.02617778241295806</v>
       </c>
       <c r="G71">
-        <v>0.1415031750667996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.004584845961414915</v>
+      </c>
+      <c r="H71">
+        <v>0.05589937332406626</v>
+      </c>
+      <c r="I71">
+        <v>-0.1572399581220685</v>
+      </c>
+      <c r="J71">
+        <v>-0.03329698774125318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1006214211109305</v>
+        <v>0.1114719699324868</v>
       </c>
       <c r="C72">
-        <v>-0.02771559358570229</v>
+        <v>-0.01142665309879243</v>
       </c>
       <c r="D72">
-        <v>-0.04191421106720369</v>
+        <v>-0.06111432563949012</v>
       </c>
       <c r="E72">
-        <v>0.06529742983690921</v>
+        <v>-0.0839141418421131</v>
       </c>
       <c r="F72">
-        <v>-0.006269200249057969</v>
+        <v>0.01528473193675542</v>
       </c>
       <c r="G72">
-        <v>-0.01686154268943865</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03207979760627418</v>
+      </c>
+      <c r="H72">
+        <v>0.003165300459610952</v>
+      </c>
+      <c r="I72">
+        <v>-0.01064103329823262</v>
+      </c>
+      <c r="J72">
+        <v>0.02236687045084627</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2656949989947111</v>
+        <v>0.2697539154706797</v>
       </c>
       <c r="C73">
-        <v>-0.2327833510928646</v>
+        <v>-0.1543082392370813</v>
       </c>
       <c r="D73">
-        <v>0.002761516088533</v>
+        <v>0.006400221482826829</v>
       </c>
       <c r="E73">
-        <v>0.2737545829965499</v>
+        <v>-0.3184851403960283</v>
       </c>
       <c r="F73">
-        <v>-0.04734666871725184</v>
+        <v>-0.06100079781552315</v>
       </c>
       <c r="G73">
-        <v>0.3864307985829227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1363176314977994</v>
+      </c>
+      <c r="H73">
+        <v>0.4212675438415561</v>
+      </c>
+      <c r="I73">
+        <v>0.2239169231317998</v>
+      </c>
+      <c r="J73">
+        <v>0.3310744096365399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1538744005518023</v>
+        <v>0.1530872786992211</v>
       </c>
       <c r="C74">
-        <v>-0.01885394426925979</v>
+        <v>0.00551612205886469</v>
       </c>
       <c r="D74">
-        <v>-0.05044490186309314</v>
+        <v>-0.04676948448135489</v>
       </c>
       <c r="E74">
-        <v>0.01118307459178312</v>
+        <v>0.02529200276749094</v>
       </c>
       <c r="F74">
-        <v>-0.04608754988027514</v>
+        <v>0.0001010859285966543</v>
       </c>
       <c r="G74">
-        <v>0.002347179215447079</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01777156068809661</v>
+      </c>
+      <c r="H74">
+        <v>0.02228238947811481</v>
+      </c>
+      <c r="I74">
+        <v>0.0615611429793291</v>
+      </c>
+      <c r="J74">
+        <v>-0.07712898746356328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2355938727047685</v>
+        <v>0.24639405959936</v>
       </c>
       <c r="C75">
-        <v>-0.02405760163789303</v>
+        <v>0.01353630409463857</v>
       </c>
       <c r="D75">
-        <v>-0.05549784244985215</v>
+        <v>-0.1016563062572082</v>
       </c>
       <c r="E75">
-        <v>-0.09154711937679097</v>
+        <v>0.1137065699906613</v>
       </c>
       <c r="F75">
-        <v>-0.01819771334104658</v>
+        <v>-0.02556309554746878</v>
       </c>
       <c r="G75">
-        <v>-0.06643954989578378</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02552016339165873</v>
+      </c>
+      <c r="H75">
+        <v>0.01049366548538123</v>
+      </c>
+      <c r="I75">
+        <v>0.06536238787761968</v>
+      </c>
+      <c r="J75">
+        <v>-0.177866325842372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2363729813260163</v>
+        <v>0.261161324545948</v>
       </c>
       <c r="C76">
-        <v>-0.0225561948197143</v>
+        <v>0.0019285643719523</v>
       </c>
       <c r="D76">
-        <v>-0.09464692584936628</v>
+        <v>-0.1218080366346551</v>
       </c>
       <c r="E76">
-        <v>-0.0662520135340384</v>
+        <v>0.1299556846366876</v>
       </c>
       <c r="F76">
-        <v>-0.0301113626761627</v>
+        <v>0.007413673494606503</v>
       </c>
       <c r="G76">
-        <v>-0.03127691200227969</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.01564775692995873</v>
+      </c>
+      <c r="H76">
+        <v>0.005582201079676913</v>
+      </c>
+      <c r="I76">
+        <v>0.1217244345983619</v>
+      </c>
+      <c r="J76">
+        <v>-0.1524400158335496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1223302636537142</v>
+        <v>0.1302187907426368</v>
       </c>
       <c r="C77">
-        <v>-0.002959704070672521</v>
+        <v>0.0308388870309722</v>
       </c>
       <c r="D77">
-        <v>0.04772160794184163</v>
+        <v>0.04841987382677319</v>
       </c>
       <c r="E77">
-        <v>0.1649970276276841</v>
+        <v>-0.1700848121385522</v>
       </c>
       <c r="F77">
-        <v>-0.02037049731158857</v>
+        <v>0.05907733753381672</v>
       </c>
       <c r="G77">
-        <v>-0.1256524151673163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02350169459053989</v>
+      </c>
+      <c r="H77">
+        <v>-0.1497212430548474</v>
+      </c>
+      <c r="I77">
+        <v>-0.1286335820183885</v>
+      </c>
+      <c r="J77">
+        <v>-0.1150230287717791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09576368911361893</v>
+        <v>0.08762870603266663</v>
       </c>
       <c r="C78">
-        <v>0.01987851362639225</v>
+        <v>0.04784483291104465</v>
       </c>
       <c r="D78">
-        <v>0.02948413244054107</v>
+        <v>0.001478834564726627</v>
       </c>
       <c r="E78">
-        <v>0.0919127831498481</v>
+        <v>-0.08709514727238025</v>
       </c>
       <c r="F78">
-        <v>-0.0007344422579157162</v>
+        <v>0.03990061419229812</v>
       </c>
       <c r="G78">
-        <v>0.02637636968940988</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0127044030809077</v>
+      </c>
+      <c r="H78">
+        <v>-0.01712586775723331</v>
+      </c>
+      <c r="I78">
+        <v>-0.02621787949406725</v>
+      </c>
+      <c r="J78">
+        <v>-0.02872702055119127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.08024584612219499</v>
+        <v>0.08796305191174542</v>
       </c>
       <c r="C80">
-        <v>-0.01339114463895712</v>
+        <v>-0.06141662274851576</v>
       </c>
       <c r="D80">
-        <v>0.02728711310236149</v>
+        <v>0.1660108212976985</v>
       </c>
       <c r="E80">
-        <v>-0.02183673480163813</v>
+        <v>0.1783286681113896</v>
       </c>
       <c r="F80">
-        <v>-0.002713566863581705</v>
+        <v>0.9385111476153939</v>
       </c>
       <c r="G80">
-        <v>-0.325791924791452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02507152107997428</v>
+      </c>
+      <c r="H80">
+        <v>0.1346304200801589</v>
+      </c>
+      <c r="I80">
+        <v>0.002457037049728615</v>
+      </c>
+      <c r="J80">
+        <v>0.1060754669763413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1677598644478107</v>
+        <v>0.1745236182751626</v>
       </c>
       <c r="C81">
-        <v>-0.01932254551589339</v>
+        <v>0.002470179781424735</v>
       </c>
       <c r="D81">
-        <v>-0.05374836036607365</v>
+        <v>-0.08657926271642072</v>
       </c>
       <c r="E81">
-        <v>-0.1056050218432806</v>
+        <v>0.1337707803142346</v>
       </c>
       <c r="F81">
-        <v>-0.04803032783962687</v>
+        <v>-0.02728456167633209</v>
       </c>
       <c r="G81">
-        <v>-0.04973747760987043</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.01281901834094305</v>
+      </c>
+      <c r="H81">
+        <v>0.007017978296825252</v>
+      </c>
+      <c r="I81">
+        <v>0.06465961236290226</v>
+      </c>
+      <c r="J81">
+        <v>-0.1240014865706284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.07649645953748943</v>
+        <v>0.06476662268299883</v>
       </c>
       <c r="C83">
-        <v>0.01724679399784275</v>
+        <v>0.03259184259869268</v>
       </c>
       <c r="D83">
-        <v>0.08384159189131328</v>
+        <v>0.04537078560882292</v>
       </c>
       <c r="E83">
-        <v>0.07241357533485208</v>
+        <v>-0.0722587425196112</v>
       </c>
       <c r="F83">
-        <v>0.06495745310234953</v>
+        <v>-0.006080434967043636</v>
       </c>
       <c r="G83">
-        <v>-0.04536481931303922</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04657226616401702</v>
+      </c>
+      <c r="H83">
+        <v>-0.04535264382543908</v>
+      </c>
+      <c r="I83">
+        <v>0.01599218404245913</v>
+      </c>
+      <c r="J83">
+        <v>-0.08790500369062162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2484492218984186</v>
+        <v>0.2590546231948561</v>
       </c>
       <c r="C85">
-        <v>0.03730120892103586</v>
+        <v>0.04705972230175336</v>
       </c>
       <c r="D85">
-        <v>-0.04757298200969507</v>
+        <v>-0.08438023995584763</v>
       </c>
       <c r="E85">
-        <v>-0.1026473882156009</v>
+        <v>0.1380829368071088</v>
       </c>
       <c r="F85">
-        <v>-0.008622463927147795</v>
+        <v>0.008862413122618878</v>
       </c>
       <c r="G85">
-        <v>-0.08833930873873752</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02057504831516224</v>
+      </c>
+      <c r="H85">
+        <v>-0.02774606580515837</v>
+      </c>
+      <c r="I85">
+        <v>0.08964399355038208</v>
+      </c>
+      <c r="J85">
+        <v>-0.1989140777620986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0488840289804788</v>
+        <v>0.03073799260278161</v>
       </c>
       <c r="C86">
-        <v>0.02227892629362032</v>
+        <v>0.03955868457525763</v>
       </c>
       <c r="D86">
-        <v>-0.008135720338084884</v>
+        <v>-0.007579510941405341</v>
       </c>
       <c r="E86">
-        <v>0.05282983490031649</v>
+        <v>-0.0578221955734969</v>
       </c>
       <c r="F86">
-        <v>-0.006431956730600794</v>
+        <v>0.03417751459444961</v>
       </c>
       <c r="G86">
-        <v>-0.01328354309463746</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.007686661295604587</v>
+      </c>
+      <c r="H86">
+        <v>-0.03380144346254636</v>
+      </c>
+      <c r="I86">
+        <v>-0.07568422363640596</v>
+      </c>
+      <c r="J86">
+        <v>0.003356883575177441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03205844740556394</v>
+        <v>0.03894357217610894</v>
       </c>
       <c r="C87">
-        <v>-0.05259475366997729</v>
+        <v>-0.0249370119667786</v>
       </c>
       <c r="D87">
-        <v>-0.01193643786689769</v>
+        <v>-0.001935232206067799</v>
       </c>
       <c r="E87">
-        <v>0.05415950818022718</v>
+        <v>-0.08442783627547987</v>
       </c>
       <c r="F87">
-        <v>0.01448460817435435</v>
+        <v>0.01911895064856441</v>
       </c>
       <c r="G87">
-        <v>0.1698817763118496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.006633349798123469</v>
+      </c>
+      <c r="H87">
+        <v>0.01748798346323759</v>
+      </c>
+      <c r="I87">
+        <v>-0.04399704261524016</v>
+      </c>
+      <c r="J87">
+        <v>0.102916327026083</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03246668012698561</v>
+        <v>0.02108866548596053</v>
       </c>
       <c r="C88">
-        <v>0.02167069355510884</v>
+        <v>0.01598987460153323</v>
       </c>
       <c r="D88">
-        <v>-0.007861881885737264</v>
+        <v>-0.01208634485254175</v>
       </c>
       <c r="E88">
-        <v>0.006707898007999818</v>
+        <v>-0.004508018269324117</v>
       </c>
       <c r="F88">
-        <v>-0.005604589013071716</v>
+        <v>0.0221710423873436</v>
       </c>
       <c r="G88">
-        <v>-0.05644253711660588</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0265894887681536</v>
+      </c>
+      <c r="H88">
+        <v>-0.04863573717692542</v>
+      </c>
+      <c r="I88">
+        <v>0.007906061399034372</v>
+      </c>
+      <c r="J88">
+        <v>0.02134249513792368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.03634589656056422</v>
+        <v>0.0362671258336573</v>
       </c>
       <c r="C89">
-        <v>-0.4357234582697828</v>
+        <v>-0.4024864515790654</v>
       </c>
       <c r="D89">
-        <v>0.08710112334213856</v>
+        <v>0.04801003520862896</v>
       </c>
       <c r="E89">
-        <v>-0.03251933938714593</v>
+        <v>-0.03944057103518046</v>
       </c>
       <c r="F89">
-        <v>0.03625966331263059</v>
+        <v>-0.03822039386989336</v>
       </c>
       <c r="G89">
-        <v>-0.03662391254446806</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07553697732650032</v>
+      </c>
+      <c r="H89">
+        <v>-0.01300033336024345</v>
+      </c>
+      <c r="I89">
+        <v>-0.2341668291501345</v>
+      </c>
+      <c r="J89">
+        <v>-0.1804748820962395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.03593016713684721</v>
+        <v>0.01827012399093266</v>
       </c>
       <c r="C90">
-        <v>-0.3091612126362736</v>
+        <v>-0.3321387883504601</v>
       </c>
       <c r="D90">
-        <v>0.01399178660297246</v>
+        <v>0.02493921662247585</v>
       </c>
       <c r="E90">
-        <v>0.01861650046357809</v>
+        <v>-0.02405542228222416</v>
       </c>
       <c r="F90">
-        <v>-0.01520335491348145</v>
+        <v>0.004965946603336107</v>
       </c>
       <c r="G90">
-        <v>0.06613881565342138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01163146152187073</v>
+      </c>
+      <c r="H90">
+        <v>0.04592183051973</v>
+      </c>
+      <c r="I90">
+        <v>-0.1630119704018112</v>
+      </c>
+      <c r="J90">
+        <v>-0.1280664917233552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3168423624813811</v>
+        <v>0.3237295985725212</v>
       </c>
       <c r="C91">
-        <v>0.003081703461151511</v>
+        <v>0.02760578624263598</v>
       </c>
       <c r="D91">
-        <v>-0.05725386306887907</v>
+        <v>-0.1019906320317332</v>
       </c>
       <c r="E91">
-        <v>-0.2261637107945058</v>
+        <v>0.2579945114118623</v>
       </c>
       <c r="F91">
-        <v>-0.06705767996297529</v>
+        <v>-0.03721443315467322</v>
       </c>
       <c r="G91">
-        <v>-0.2370824490302767</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02407110241707494</v>
+      </c>
+      <c r="H91">
+        <v>-0.001590060576124351</v>
+      </c>
+      <c r="I91">
+        <v>0.1595897369653037</v>
+      </c>
+      <c r="J91">
+        <v>-0.3439888882114288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.05063537285296616</v>
+        <v>0.05858017161586124</v>
       </c>
       <c r="C92">
-        <v>-0.4472994175528295</v>
+        <v>-0.4752536489665125</v>
       </c>
       <c r="D92">
-        <v>0.2063670713225467</v>
+        <v>0.07809418096188384</v>
       </c>
       <c r="E92">
-        <v>-0.121571582282702</v>
+        <v>0.1344421969972459</v>
       </c>
       <c r="F92">
-        <v>-0.05178289427203593</v>
+        <v>-0.02128161500177029</v>
       </c>
       <c r="G92">
-        <v>-0.501323993866668</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03422708203174669</v>
+      </c>
+      <c r="H92">
+        <v>-0.5771740823040616</v>
+      </c>
+      <c r="I92">
+        <v>0.5194587749258172</v>
+      </c>
+      <c r="J92">
+        <v>0.3197718722143901</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.04653931316358731</v>
+        <v>0.01966644799717189</v>
       </c>
       <c r="C93">
-        <v>-0.36171830174026</v>
+        <v>-0.4044801829919373</v>
       </c>
       <c r="D93">
-        <v>0.06409522181177579</v>
+        <v>0.0541746590949587</v>
       </c>
       <c r="E93">
-        <v>-0.0576923369375917</v>
+        <v>0.03208432683800037</v>
       </c>
       <c r="F93">
-        <v>-0.007561573450737125</v>
+        <v>-0.01924817967107174</v>
       </c>
       <c r="G93">
-        <v>-0.02437686081707651</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04274551024450056</v>
+      </c>
+      <c r="H93">
+        <v>0.05533482246418065</v>
+      </c>
+      <c r="I93">
+        <v>-0.1574450384108233</v>
+      </c>
+      <c r="J93">
+        <v>-0.1658736662877698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3259444988587109</v>
+        <v>0.3356855719205017</v>
       </c>
       <c r="C94">
-        <v>0.00214795459401919</v>
+        <v>0.02099855431318172</v>
       </c>
       <c r="D94">
-        <v>-0.03168623643104939</v>
+        <v>-0.1579171006443663</v>
       </c>
       <c r="E94">
-        <v>-0.5762589991394592</v>
+        <v>0.4259848763005723</v>
       </c>
       <c r="F94">
-        <v>-0.3558984884819772</v>
+        <v>-0.1192046169172871</v>
       </c>
       <c r="G94">
-        <v>0.2278147453247596</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1880412974880783</v>
+      </c>
+      <c r="H94">
+        <v>-0.02903788230382001</v>
+      </c>
+      <c r="I94">
+        <v>-0.5140062948770491</v>
+      </c>
+      <c r="J94">
+        <v>0.5095882923713622</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1861441433110191</v>
+        <v>0.1439865390874802</v>
       </c>
       <c r="C95">
-        <v>-0.05185661111304502</v>
+        <v>0.05246664376043198</v>
       </c>
       <c r="D95">
-        <v>-0.0582956173075256</v>
+        <v>-0.03032563673215975</v>
       </c>
       <c r="E95">
-        <v>-0.2506474569487426</v>
+        <v>-0.001530726374979531</v>
       </c>
       <c r="F95">
-        <v>0.902196601297456</v>
+        <v>-0.06447366619508298</v>
       </c>
       <c r="G95">
-        <v>0.03958566514729678</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9324819255650464</v>
+      </c>
+      <c r="H95">
+        <v>0.0672569307559901</v>
+      </c>
+      <c r="I95">
+        <v>-0.06416528941746331</v>
+      </c>
+      <c r="J95">
+        <v>0.2104669707422516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.203745227812993</v>
+        <v>0.2058610991306579</v>
       </c>
       <c r="C98">
-        <v>-0.1545143288935414</v>
+        <v>-0.099431915425093</v>
       </c>
       <c r="D98">
-        <v>0.01192635217676178</v>
+        <v>0.01070111420135817</v>
       </c>
       <c r="E98">
-        <v>0.1063738751432527</v>
+        <v>-0.1655013880630121</v>
       </c>
       <c r="F98">
-        <v>-0.0009955057000986709</v>
+        <v>-0.06661282064068749</v>
       </c>
       <c r="G98">
-        <v>0.2328058491517459</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.0592456852158453</v>
+      </c>
+      <c r="H98">
+        <v>0.2974166459425803</v>
+      </c>
+      <c r="I98">
+        <v>0.1882288703837399</v>
+      </c>
+      <c r="J98">
+        <v>0.1209628810143287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01911074192637366</v>
+        <v>0.01314629183095519</v>
       </c>
       <c r="C101">
-        <v>0.01451593392497724</v>
+        <v>0.02898542781732333</v>
       </c>
       <c r="D101">
-        <v>-0.01909190077530632</v>
+        <v>-0.02452290486548956</v>
       </c>
       <c r="E101">
-        <v>0.03824575655318158</v>
+        <v>-0.06058527448382168</v>
       </c>
       <c r="F101">
-        <v>0.002073735919918051</v>
+        <v>0.03330609126020546</v>
       </c>
       <c r="G101">
-        <v>-0.03850139746357659</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.00344314823644757</v>
+      </c>
+      <c r="H101">
+        <v>-0.1224617889604643</v>
+      </c>
+      <c r="I101">
+        <v>-0.01673290711962088</v>
+      </c>
+      <c r="J101">
+        <v>0.01229338556324922</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.121328191307929</v>
+        <v>0.1212751594658209</v>
       </c>
       <c r="C102">
-        <v>-0.004475706509184975</v>
+        <v>0.02244771046063703</v>
       </c>
       <c r="D102">
-        <v>-0.04594601214353791</v>
+        <v>-0.05277151331586792</v>
       </c>
       <c r="E102">
-        <v>-0.06835084843622964</v>
+        <v>0.08106307406084039</v>
       </c>
       <c r="F102">
-        <v>0.0273401664787077</v>
+        <v>0.00165352016831543</v>
       </c>
       <c r="G102">
-        <v>-0.01608355298793309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0416011506826445</v>
+      </c>
+      <c r="H102">
+        <v>0.002972968700870279</v>
+      </c>
+      <c r="I102">
+        <v>0.001505105863199355</v>
+      </c>
+      <c r="J102">
+        <v>-0.06499523274216279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01562421496039724</v>
+        <v>0.0233161349923245</v>
       </c>
       <c r="C103">
-        <v>0.001648365279430393</v>
+        <v>0.003221541648242856</v>
       </c>
       <c r="D103">
-        <v>-0.01487439290106992</v>
+        <v>-0.01640799262919292</v>
       </c>
       <c r="E103">
-        <v>-0.03169957487746171</v>
+        <v>0.01592849424535287</v>
       </c>
       <c r="F103">
-        <v>-0.009402448736618139</v>
+        <v>0.001159265008324509</v>
       </c>
       <c r="G103">
-        <v>0.01350611223218183</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01729462173082688</v>
+      </c>
+      <c r="H103">
+        <v>-0.004750099923421229</v>
+      </c>
+      <c r="I103">
+        <v>-0.02655219755993908</v>
+      </c>
+      <c r="J103">
+        <v>-0.00720086933433154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
